--- a/biology/Médecine/Frédéric_François_Alain_Ekra/Frédéric_François_Alain_Ekra.xlsx
+++ b/biology/Médecine/Frédéric_François_Alain_Ekra/Frédéric_François_Alain_Ekra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Fran%C3%A7ois_Alain_Ekra</t>
+          <t>Frédéric_François_Alain_Ekra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Alain Ekra (né le 30 août 1940 à Abidjan[1]) est un médecin spécialisé en cardiologie et homme politique ivoirien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Alain Ekra (né le 30 août 1940 à Abidjan) est un médecin spécialisé en cardiologie et homme politique ivoirien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Fran%C3%A7ois_Alain_Ekra</t>
+          <t>Frédéric_François_Alain_Ekra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Alain Ekra est un ancien joueur international de basket-ball, entraîneur de l'équipe de Côte d'Ivoire de basket-ball, ancien vice-président de la Confédération Africaine de Basket-ball et président de la Fédération ivoirienne de basket-ball jusqu'en 1986[2].
-Après avoir été le directeur de l'institut de cardiologie d'Abidjan, il est nommé ministre de la Santé et de la Protection Sociale en 1989 sous la présidence Félix Houphouët-Boigny[3]. Il le restera jusqu'en 1992[4]. Il est issu des rangs du PDCI.
-Après avoir été ministre, il est Président de la FIBA Afrique (Association des fédérations africaines de basket-ball) de 1998 à 2010[5]. En 2002, il est également nommé Vice-Président du Comite National Olympique de Côte d'Ivoire[5],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Alain Ekra est un ancien joueur international de basket-ball, entraîneur de l'équipe de Côte d'Ivoire de basket-ball, ancien vice-président de la Confédération Africaine de Basket-ball et président de la Fédération ivoirienne de basket-ball jusqu'en 1986.
+Après avoir été le directeur de l'institut de cardiologie d'Abidjan, il est nommé ministre de la Santé et de la Protection Sociale en 1989 sous la présidence Félix Houphouët-Boigny. Il le restera jusqu'en 1992. Il est issu des rangs du PDCI.
+Après avoir été ministre, il est Président de la FIBA Afrique (Association des fédérations africaines de basket-ball) de 1998 à 2010. En 2002, il est également nommé Vice-Président du Comite National Olympique de Côte d'Ivoire,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Fran%C3%A7ois_Alain_Ekra</t>
+          <t>Frédéric_François_Alain_Ekra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2008 : Officier de l'Ordre National de Côte d'Ivoire[6]
-Officier de la Légion d'Honneur de France[1]
-Officier de l'Ordre du Lion du Sénégal[1]
-Commandeur du Mérite Sportif de Côte d'Ivoire[1]
-Commandeur de l'Ordre de la Santé Publique[1]
-Citation à l'Ordre Olympique (C.I.O)[7]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2008 : Officier de l'Ordre National de Côte d'Ivoire
+Officier de la Légion d'Honneur de France
+Officier de l'Ordre du Lion du Sénégal
+Commandeur du Mérite Sportif de Côte d'Ivoire
+Commandeur de l'Ordre de la Santé Publique
+Citation à l'Ordre Olympique (C.I.O)</t>
         </is>
       </c>
     </row>
